--- a/excel/products.xlsx
+++ b/excel/products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenne\Dropbox\Family Room\00_Keeonz Limited\02_Marketing\02_Website\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenne\Dropbox\Family Room\00_Keeonz Limited\02_Marketing\02_Website\webdisplay\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9874DCD-0EA8-4BE6-A6F0-3280CE7D1E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83BCEEC-BD31-4432-8DB4-4E2601862AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="4296" windowWidth="17280" windowHeight="8880" xr2:uid="{E9416F8B-DBE0-4E8C-8A96-12F9FF90D98E}"/>
+    <workbookView xWindow="2604" yWindow="1620" windowWidth="17280" windowHeight="8880" xr2:uid="{E9416F8B-DBE0-4E8C-8A96-12F9FF90D98E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>price</t>
   </si>
@@ -60,23 +60,37 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>image_filename</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t>mary</t>
+  </si>
+  <si>
+    <t>expiry_date</t>
+  </si>
+  <si>
+    <t>payment_url</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>www.yahoo.com.hk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,6 +100,20 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,22 +133,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,59 +489,93 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.21875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="38.21875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>12500</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="F2" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>1099</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20250427</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{145DB36B-2B5A-4E08-9DF8-92355DA64262}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{6160EB06-E9D8-4FED-8261-8BC4F18C6117}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/excel/products.xlsx
+++ b/excel/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenne\Dropbox\Family Room\00_Keeonz Limited\02_Marketing\02_Website\webdisplay\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83BCEEC-BD31-4432-8DB4-4E2601862AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91458CF-5165-49E3-968A-597CD9BB063D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2604" yWindow="1620" windowWidth="17280" windowHeight="8880" xr2:uid="{E9416F8B-DBE0-4E8C-8A96-12F9FF90D98E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9416F8B-DBE0-4E8C-8A96-12F9FF90D98E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
   <si>
     <t>price</t>
   </si>
@@ -486,17 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8519656-ED4D-4418-AFCA-7B39D97E33DA}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.21875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="38.21875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -570,12 +573,516 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>12500</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>20250426</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{145DB36B-2B5A-4E08-9DF8-92355DA64262}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{6160EB06-E9D8-4FED-8261-8BC4F18C6117}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{AD428FA2-F509-4E3A-B882-69E2274C37FD}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{1E08DDD4-07D0-443B-A85B-055151457010}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{0155C0D5-F55E-45B7-8762-946C8580E902}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{F9A69B92-8B53-4D49-A302-2A839120A9B8}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{F07A544C-B3FA-45FB-9F1F-FF003FA20179}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{E732DFE5-BEFE-4CCF-8D87-0B5EAE97BBBA}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{E1D6B086-926F-4C9F-9179-253DC46A48F3}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{B066D5F1-345F-448A-B6E6-3B336F1EBF8A}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{18E1DABB-CC72-4177-8A30-053016E2B673}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{45ACC02D-00D9-4B6C-8315-9159ACD95B63}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{244A3076-FF25-4958-8578-1F0E1B96359F}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{26D96298-10AB-41D5-9BC2-47A94773BF40}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{C70F1D43-D538-458C-ADBC-4708401CB6C2}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{DA5A62CE-5C0C-47D6-BDFC-936E21ABAE57}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{9F1E8765-F1AF-4F23-844C-A27E73396C75}"/>
+    <hyperlink ref="G19" r:id="rId18" xr:uid="{92EC1ADA-FD95-4B6F-8039-A8951F3D2091}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{7E5820E0-FF82-4286-A880-23F58E8E71F8}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{69FB2D1B-5892-4D79-9B04-38310980DDAA}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{E33BE0C2-3FFC-40A5-BFDE-E2E6A272CAF8}"/>
+    <hyperlink ref="G23" r:id="rId22" xr:uid="{8F87F091-4985-406E-9296-0D68303CB045}"/>
+    <hyperlink ref="G24" r:id="rId23" xr:uid="{5D2E8D20-CCB6-4226-923E-6D730133BFFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>